--- a/TestcaseOrangeHRM.xlsx
+++ b/TestcaseOrangeHRM.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="66" documentId="8_{2E0A0D5A-FB4E-4CD7-B77F-BFD54E4E9662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF94E543-581F-4F2D-A31B-A8F5580EB11E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E268510E-E7EF-4177-9496-93435FAB452B}"/>
+    <workbookView minimized="1" xWindow="6108" yWindow="3708" windowWidth="17280" windowHeight="8880" xr2:uid="{E268510E-E7EF-4177-9496-93435FAB452B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -783,6 +783,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -791,9 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2069E3-5B59-4449-8F28-2034C8C7B723}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="59" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1170,52 +1170,52 @@
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="16" t="s">
@@ -1239,15 +1239,15 @@
       <c r="C5" s="25">
         <v>45921</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1"/>
     <row r="8" spans="2:12" ht="15.6">
@@ -1625,7 +1625,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="83.4">
+    <row r="20" spans="1:12" ht="69.599999999999994">
       <c r="A20" s="13"/>
       <c r="B20" s="4">
         <v>12</v>

--- a/TestcaseOrangeHRM.xlsx
+++ b/TestcaseOrangeHRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6d9deee9b883f83/Desktop/Codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{2E0A0D5A-FB4E-4CD7-B77F-BFD54E4E9662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF94E543-581F-4F2D-A31B-A8F5580EB11E}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{2E0A0D5A-FB4E-4CD7-B77F-BFD54E4E9662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A1E7CAD-939C-4BB7-ABFC-127E3052F9FA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6108" yWindow="3708" windowWidth="17280" windowHeight="8880" xr2:uid="{E268510E-E7EF-4177-9496-93435FAB452B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E268510E-E7EF-4177-9496-93435FAB452B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Project Name</t>
   </si>
@@ -132,60 +132,6 @@
   </si>
   <si>
     <t>ORM_SRHRQ_TC0003</t>
-  </si>
-  <si>
-    <t>ORM_LGT_FN_TC0001</t>
-  </si>
-  <si>
-    <t>Verify logout</t>
-  </si>
-  <si>
-    <t>Vacancy name :  Manual  Tester
-Job Title : Automation Tester
-Descriotion : Manual tester with strong knowledge in agile and Test scenarios.
-Hiring Manager: Thomas Kutty Benny
-Number of Positions: 2</t>
-  </si>
-  <si>
-    <t>Saved Successfully</t>
-  </si>
-  <si>
-    <t>ORM_SRHRQ_TC0004</t>
-  </si>
-  <si>
-    <t>ORM_SRHRQ_TC0005</t>
-  </si>
-  <si>
-    <t>ORM_MYINF_TC0001</t>
-  </si>
-  <si>
-    <t>Employee full name: mike akhil user
-Employee id : muser2
-Other id : 4957191
-Driver's License Number: 56789
-License Expiry Date : 2023-19-10
-Nationality: Afghan
-Marital Status : Married
-Date of Birth: 1999-24-10
-Gender  : Male 
-Blood Type : B+
-Test Field: 445</t>
-  </si>
-  <si>
-    <t>ORM_MYINF_TC0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street 1 : gandhi nagar 
-City : Chennai
-State/Province: Tamilnadu 
-Zip/Postal Code: 600056
-Country : Afghanistan
-Mobile: 9890067000
-Work Email: gemini@gmail.com
-</t>
-  </si>
-  <si>
-    <t>ORM_MYINF_TC0003</t>
   </si>
   <si>
     <t>Verify login with valid credentials</t>
@@ -352,15 +298,6 @@
     </r>
   </si>
   <si>
-    <t>Username: Admin
-Password: admin123
-Recruitment data:
-Job title: Developers
-Vacancy: Senior QA Lead
-Hiring Manager: Abdullah Maaz
-Status: Active</t>
-  </si>
-  <si>
     <t>Search records successfully.</t>
   </si>
   <si>
@@ -428,72 +365,6 @@
     <t>All the field values are reset successfully.</t>
   </si>
   <si>
-    <t>Verify adding new vacancies</t>
-  </si>
-  <si>
-    <t>Step 1: Click "Vacancies" at the top.
-Step 2: Click "Add" at the bottom.
-Step 3: Enter valid credentials for all required fields.
-Step 4: Click the "Save" button.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the Cancel button functionality in the Add Vacancies form </t>
-  </si>
-  <si>
-    <t>Step 1: Select "Recruitment" from the left panel.
-Step 2: Click "Vacancies" at the top.
-Step 3: Click "Add" and scroll down.
-Step 4: Click the "Cancel" button at the bottom.</t>
-  </si>
-  <si>
-    <t>Verify modifying personal details</t>
-  </si>
-  <si>
-    <t>Step 1: Select "My Info" from the left panel.
-Step 2: Click "Personal Details".
-Step 3: Modify all required fields with valid credentials.
-Step 4: Click the "Save" button for each field.</t>
-  </si>
-  <si>
-    <t>Personal details modified and saved successfully</t>
-  </si>
-  <si>
-    <t>Verify modifying contact details</t>
-  </si>
-  <si>
-    <t>Step 1: Select "My Info" from the left panel.
-Step 2: Click "Contact Details".
-Step 3: Modify all required fields with valid credentials.
-Step 4: Click the "Save" button.</t>
-  </si>
-  <si>
-    <t>Contact details modified and saved successfully</t>
-  </si>
-  <si>
-    <t>Verify modifying all fields as blank and attempting to save</t>
-  </si>
-  <si>
-    <t>Step 1: Select "My Info" from the left panel.
-Step 2: Click "Contact Details".
-Step 3: Clear all fields to leave them blank.
-Step 4: Click the "Save" button.</t>
-  </si>
-  <si>
-    <t>Shows alert for missing required fields.</t>
-  </si>
-  <si>
-    <t>All fields are blank but saved successfully.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Check the profile icon in the top-right corner.
-Step 2: Click the profile and check for the Logout option.
-Step 3: Click the Logout button.
-</t>
-  </si>
-  <si>
-    <t>Logout successfully.</t>
-  </si>
-  <si>
     <t>User must have a valid username and password.</t>
   </si>
   <si>
@@ -506,28 +377,23 @@
     <t>Automation</t>
   </si>
   <si>
-    <t>ORM_EMP_FN_TC0003</t>
-  </si>
-  <si>
-    <t>Verify adding a new employee</t>
-  </si>
-  <si>
-    <t>Step 1: Login and navigate to PIM module.&lt;br&gt;Step 2: Click “Add Employee”.&lt;br&gt;Step 3: Fill in required fields and save.</t>
-  </si>
-  <si>
-    <t>New employee should be added and visible in employee list</t>
-  </si>
-  <si>
-    <t>ORM_LVE_FN_TC0004</t>
-  </si>
-  <si>
-    <t>Verify leave application</t>
-  </si>
-  <si>
-    <t>Step 1: Login and go to Leave module.&lt;br&gt;Step 2: Click “Apply Leave”.&lt;br&gt;Step 3: Select leave type, dates, and submit.</t>
-  </si>
-  <si>
-    <t>Leave request should be submitted and visible in leave list.</t>
+    <t>Username: Admin
+Password: admin123
+Recruitment data:
+Job title:QA Lead
+Vacancy: Senior QA Lead
+Hiring Manager: Weber Bricks
+Status: Active</t>
+  </si>
+  <si>
+    <t>Login credential: 
+Username : Admin
+Password: admin123
+recruitment data: 
+Job title : Automation Tester
+vacancy:Playwright  Automation Tester
+Hiring Manager: John Doe
+Status: closed</t>
   </si>
 </sst>
 </file>
@@ -618,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -717,25 +583,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,22 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -826,6 +663,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1145,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2069E3-5B59-4449-8F28-2034C8C7B723}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="59" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="59" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1167,87 +1008,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
+      <c r="C1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
+      <c r="C2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="C3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="19">
         <v>45921</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1"/>
     <row r="8" spans="2:12" ht="15.6">
@@ -1293,22 +1134,22 @@
         <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>19</v>
@@ -1326,27 +1167,29 @@
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:12" ht="115.2">
@@ -1357,27 +1200,29 @@
         <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12" ht="111">
@@ -1388,25 +1233,27 @@
         <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="2:12" ht="138.6">
@@ -1417,27 +1264,29 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12" ht="138.6">
@@ -1448,27 +1297,29 @@
         <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12" ht="152.4">
@@ -1479,273 +1330,30 @@
         <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" ht="134.25" customHeight="1">
-      <c r="B16" s="4">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="124.5" customHeight="1">
-      <c r="B17" s="4">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="152.4">
-      <c r="B18" s="4">
-        <v>10</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="140.25" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="4">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="69.599999999999994">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="91.5" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="4">
-        <v>13</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="57.6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="4">
-        <v>14</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" ht="57.6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="4">
-        <v>15</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
